--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sfrp1</t>
   </si>
   <si>
     <t>Fzd6</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>32.52008666666666</v>
+        <v>0.015775</v>
       </c>
       <c r="H2">
-        <v>97.56026</v>
+        <v>0.047325</v>
       </c>
       <c r="I2">
-        <v>0.9826873631596889</v>
+        <v>0.0004755726158082629</v>
       </c>
       <c r="J2">
-        <v>0.9826873631596887</v>
+        <v>0.0004755726158082628</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>13.21223933333333</v>
+        <v>28.58650933333334</v>
       </c>
       <c r="N2">
-        <v>39.636718</v>
+        <v>85.759528</v>
       </c>
       <c r="O2">
-        <v>0.8149747101495924</v>
+        <v>0.9059490896276022</v>
       </c>
       <c r="P2">
-        <v>0.8149747101495927</v>
+        <v>0.9059490896276023</v>
       </c>
       <c r="Q2">
-        <v>429.6631681807422</v>
+        <v>0.4509521847333334</v>
       </c>
       <c r="R2">
-        <v>3866.96851362668</v>
+        <v>4.0585696626</v>
       </c>
       <c r="S2">
-        <v>0.8008653489587347</v>
+        <v>0.0004308445783433132</v>
       </c>
       <c r="T2">
-        <v>0.8008653489587348</v>
+        <v>0.0004308445783433132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>32.52008666666666</v>
+        <v>0.015775</v>
       </c>
       <c r="H3">
-        <v>97.56026</v>
+        <v>0.047325</v>
       </c>
       <c r="I3">
-        <v>0.9826873631596889</v>
+        <v>0.0004755726158082629</v>
       </c>
       <c r="J3">
-        <v>0.9826873631596887</v>
+        <v>0.0004755726158082628</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.988209000000001</v>
       </c>
       <c r="O3">
-        <v>0.1642464018940561</v>
+        <v>0.08438608327351124</v>
       </c>
       <c r="P3">
-        <v>0.1642464018940561</v>
+        <v>0.08438608327351126</v>
       </c>
       <c r="Q3">
-        <v>86.59241633048222</v>
+        <v>0.04200466565833334</v>
       </c>
       <c r="R3">
-        <v>779.3317469743401</v>
+        <v>0.3780419909250001</v>
       </c>
       <c r="S3">
-        <v>0.1614028635857365</v>
+        <v>4.013171036019764E-05</v>
       </c>
       <c r="T3">
-        <v>0.1614028635857365</v>
+        <v>4.013171036019765E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>32.52008666666666</v>
+        <v>0.015775</v>
       </c>
       <c r="H4">
-        <v>97.56026</v>
+        <v>0.047325</v>
       </c>
       <c r="I4">
-        <v>0.9826873631596889</v>
+        <v>0.0004755726158082629</v>
       </c>
       <c r="J4">
-        <v>0.9826873631596887</v>
+        <v>0.0004755726158082628</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,42 +679,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.327069</v>
+        <v>0.304966</v>
       </c>
       <c r="N4">
-        <v>0.9812070000000001</v>
+        <v>0.914898</v>
       </c>
       <c r="O4">
-        <v>0.02017469989371348</v>
+        <v>0.009664827098886481</v>
       </c>
       <c r="P4">
-        <v>0.02017469989371349</v>
+        <v>0.009664827098886483</v>
       </c>
       <c r="Q4">
-        <v>10.63631222598</v>
+        <v>0.00481083865</v>
       </c>
       <c r="R4">
-        <v>95.72681003382</v>
+        <v>0.04329754785</v>
       </c>
       <c r="S4">
-        <v>0.01982542264109135</v>
+        <v>4.596327104752028E-06</v>
       </c>
       <c r="T4">
-        <v>0.01982542264109136</v>
+        <v>4.596327104752029E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +729,40 @@
         <v>97.56026</v>
       </c>
       <c r="I5">
-        <v>0.9826873631596889</v>
+        <v>0.9803906613234915</v>
       </c>
       <c r="J5">
-        <v>0.9826873631596887</v>
+        <v>0.9803906613234915</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.009795</v>
+        <v>28.58650933333334</v>
       </c>
       <c r="N5">
-        <v>0.029385</v>
+        <v>85.759528</v>
       </c>
       <c r="O5">
-        <v>0.0006041880626379251</v>
+        <v>0.9059490896276022</v>
       </c>
       <c r="P5">
-        <v>0.0006041880626379253</v>
+        <v>0.9059490896276023</v>
       </c>
       <c r="Q5">
-        <v>0.3185342489</v>
+        <v>929.6357610174756</v>
       </c>
       <c r="R5">
-        <v>2.8668082401</v>
+        <v>8366.72184915728</v>
       </c>
       <c r="S5">
-        <v>0.0005937279741262235</v>
+        <v>0.88818402710542</v>
       </c>
       <c r="T5">
-        <v>0.0005937279741262236</v>
+        <v>0.8881840271054201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5729273333333333</v>
+        <v>32.52008666666666</v>
       </c>
       <c r="H6">
-        <v>1.718782</v>
+        <v>97.56026</v>
       </c>
       <c r="I6">
-        <v>0.01731263684031117</v>
+        <v>0.9803906613234915</v>
       </c>
       <c r="J6">
-        <v>0.01731263684031117</v>
+        <v>0.9803906613234915</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>13.21223933333333</v>
+        <v>2.662736333333334</v>
       </c>
       <c r="N6">
-        <v>39.636718</v>
+        <v>7.988209000000001</v>
       </c>
       <c r="O6">
-        <v>0.8149747101495924</v>
+        <v>0.08438608327351124</v>
       </c>
       <c r="P6">
-        <v>0.8149747101495927</v>
+        <v>0.08438608327351126</v>
       </c>
       <c r="Q6">
-        <v>7.569653048608445</v>
+        <v>86.59241633048222</v>
       </c>
       <c r="R6">
-        <v>68.12687743747601</v>
+        <v>779.3317469743401</v>
       </c>
       <c r="S6">
-        <v>0.01410936119085776</v>
+        <v>0.08273132798701691</v>
       </c>
       <c r="T6">
-        <v>0.01410936119085776</v>
+        <v>0.08273132798701692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,14 +832,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5729273333333333</v>
+        <v>32.52008666666666</v>
       </c>
       <c r="H7">
-        <v>1.718782</v>
+        <v>97.56026</v>
       </c>
       <c r="I7">
-        <v>0.01731263684031117</v>
+        <v>0.9803906613234915</v>
       </c>
       <c r="J7">
-        <v>0.01731263684031117</v>
+        <v>0.9803906613234915</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,42 +865,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.662736333333334</v>
+        <v>0.304966</v>
       </c>
       <c r="N7">
-        <v>7.988209000000001</v>
+        <v>0.914898</v>
       </c>
       <c r="O7">
-        <v>0.1642464018940561</v>
+        <v>0.009664827098886481</v>
       </c>
       <c r="P7">
-        <v>0.1642464018940561</v>
+        <v>0.009664827098886483</v>
       </c>
       <c r="Q7">
-        <v>1.525554426826445</v>
+        <v>9.917520750386666</v>
       </c>
       <c r="R7">
-        <v>13.729989841438</v>
+        <v>89.25768675348</v>
       </c>
       <c r="S7">
-        <v>0.00284353830831959</v>
+        <v>0.009475306231054519</v>
       </c>
       <c r="T7">
-        <v>0.00284353830831959</v>
+        <v>0.00947530623105452</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5729273333333333</v>
+        <v>0.6144993333333333</v>
       </c>
       <c r="H8">
-        <v>1.718782</v>
+        <v>1.843498</v>
       </c>
       <c r="I8">
-        <v>0.01731263684031117</v>
+        <v>0.01852545517374117</v>
       </c>
       <c r="J8">
-        <v>0.01731263684031117</v>
+        <v>0.01852545517374117</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,90 +927,338 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.327069</v>
+        <v>28.58650933333334</v>
       </c>
       <c r="N8">
-        <v>0.9812070000000001</v>
+        <v>85.759528</v>
       </c>
       <c r="O8">
-        <v>0.02017469989371348</v>
+        <v>0.9059490896276022</v>
       </c>
       <c r="P8">
-        <v>0.02017469989371349</v>
+        <v>0.9059490896276023</v>
       </c>
       <c r="Q8">
-        <v>0.187386769986</v>
+        <v>17.56639092766044</v>
       </c>
       <c r="R8">
-        <v>1.686480929874</v>
+        <v>158.097518348944</v>
       </c>
       <c r="S8">
-        <v>0.0003492772526221259</v>
+        <v>0.01678311924958777</v>
       </c>
       <c r="T8">
-        <v>0.000349277252622126</v>
+        <v>0.01678311924958777</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6144993333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.843498</v>
+      </c>
+      <c r="I9">
+        <v>0.01852545517374117</v>
+      </c>
+      <c r="J9">
+        <v>0.01852545517374117</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.662736333333334</v>
+      </c>
+      <c r="N9">
+        <v>7.988209000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.08438608327351124</v>
+      </c>
+      <c r="P9">
+        <v>0.08438608327351126</v>
+      </c>
+      <c r="Q9">
+        <v>1.636249701675778</v>
+      </c>
+      <c r="R9">
+        <v>14.726247315082</v>
+      </c>
+      <c r="S9">
+        <v>0.001563290602971022</v>
+      </c>
+      <c r="T9">
+        <v>0.001563290602971022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6144993333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.843498</v>
+      </c>
+      <c r="I10">
+        <v>0.01852545517374117</v>
+      </c>
+      <c r="J10">
+        <v>0.01852545517374117</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.304966</v>
+      </c>
+      <c r="N10">
+        <v>0.914898</v>
+      </c>
+      <c r="O10">
+        <v>0.009664827098886481</v>
+      </c>
+      <c r="P10">
+        <v>0.009664827098886483</v>
+      </c>
+      <c r="Q10">
+        <v>0.1874014036893333</v>
+      </c>
+      <c r="R10">
+        <v>1.686612633204</v>
+      </c>
+      <c r="S10">
+        <v>0.0001790453211823804</v>
+      </c>
+      <c r="T10">
+        <v>0.0001790453211823805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.5729273333333333</v>
-      </c>
-      <c r="H9">
-        <v>1.718782</v>
-      </c>
-      <c r="I9">
-        <v>0.01731263684031117</v>
-      </c>
-      <c r="J9">
-        <v>0.01731263684031117</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M9">
-        <v>0.009795</v>
-      </c>
-      <c r="N9">
-        <v>0.029385</v>
-      </c>
-      <c r="O9">
-        <v>0.0006041880626379251</v>
-      </c>
-      <c r="P9">
-        <v>0.0006041880626379253</v>
-      </c>
-      <c r="Q9">
-        <v>0.00561182323</v>
-      </c>
-      <c r="R9">
-        <v>0.05050640907</v>
-      </c>
-      <c r="S9">
-        <v>1.046008851170158E-05</v>
-      </c>
-      <c r="T9">
-        <v>1.046008851170158E-05</v>
+      <c r="G11">
+        <v>0.020178</v>
+      </c>
+      <c r="H11">
+        <v>0.060534</v>
+      </c>
+      <c r="I11">
+        <v>0.0006083108869590572</v>
+      </c>
+      <c r="J11">
+        <v>0.0006083108869590572</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>28.58650933333334</v>
+      </c>
+      <c r="N11">
+        <v>85.759528</v>
+      </c>
+      <c r="O11">
+        <v>0.9059490896276022</v>
+      </c>
+      <c r="P11">
+        <v>0.9059490896276023</v>
+      </c>
+      <c r="Q11">
+        <v>0.576818585328</v>
+      </c>
+      <c r="R11">
+        <v>5.191367267952</v>
+      </c>
+      <c r="S11">
+        <v>0.0005510986942511172</v>
+      </c>
+      <c r="T11">
+        <v>0.0005510986942511172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.020178</v>
+      </c>
+      <c r="H12">
+        <v>0.060534</v>
+      </c>
+      <c r="I12">
+        <v>0.0006083108869590572</v>
+      </c>
+      <c r="J12">
+        <v>0.0006083108869590572</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.662736333333334</v>
+      </c>
+      <c r="N12">
+        <v>7.988209000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.08438608327351124</v>
+      </c>
+      <c r="P12">
+        <v>0.08438608327351126</v>
+      </c>
+      <c r="Q12">
+        <v>0.053728693734</v>
+      </c>
+      <c r="R12">
+        <v>0.4835582436060001</v>
+      </c>
+      <c r="S12">
+        <v>5.133297316311049E-05</v>
+      </c>
+      <c r="T12">
+        <v>5.13329731631105E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.020178</v>
+      </c>
+      <c r="H13">
+        <v>0.060534</v>
+      </c>
+      <c r="I13">
+        <v>0.0006083108869590572</v>
+      </c>
+      <c r="J13">
+        <v>0.0006083108869590572</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.304966</v>
+      </c>
+      <c r="N13">
+        <v>0.914898</v>
+      </c>
+      <c r="O13">
+        <v>0.009664827098886481</v>
+      </c>
+      <c r="P13">
+        <v>0.009664827098886483</v>
+      </c>
+      <c r="Q13">
+        <v>0.006153603947999999</v>
+      </c>
+      <c r="R13">
+        <v>0.055382435532</v>
+      </c>
+      <c r="S13">
+        <v>5.879219544829567E-06</v>
+      </c>
+      <c r="T13">
+        <v>5.879219544829568E-06</v>
       </c>
     </row>
   </sheetData>
